--- a/REGULAR/ACCOUNTING/AMON, RHEALYN OCAMPO.xlsx
+++ b/REGULAR/ACCOUNTING/AMON, RHEALYN OCAMPO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ACCOUNTING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ACCOUNTING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F5BF88-967F-4357-9375-62985C5CF7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="97">
   <si>
     <t>PERIOD</t>
   </si>
@@ -330,7 +329,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1005,7 +1004,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1022,26 +1021,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K86" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K86" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K103" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K103"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1348,34 +1347,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K86"/>
+  <dimension ref="A2:K103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <pane ySplit="4008" topLeftCell="A73" activePane="bottomLeft"/>
+      <pane ySplit="4005" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
+      <selection pane="bottomLeft" activeCell="K90" sqref="K90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1398,7 +1397,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1420,7 +1419,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1442,7 +1441,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="55"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1450,7 +1449,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1463,7 +1462,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -1480,7 +1479,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1515,7 +1514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1524,7 +1523,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>20.605999999999995</v>
+        <v>23.105999999999995</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1534,12 +1533,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>27.957999999999998</v>
+        <v>28.457999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -1561,7 +1560,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43832</v>
       </c>
@@ -1581,7 +1580,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43862</v>
       </c>
@@ -1605,7 +1604,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
         <v>46</v>
       </c>
@@ -1625,7 +1624,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43922</v>
       </c>
@@ -1645,7 +1644,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43952</v>
       </c>
@@ -1665,7 +1664,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43983</v>
       </c>
@@ -1685,7 +1684,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>44013</v>
       </c>
@@ -1705,7 +1704,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>44044</v>
       </c>
@@ -1725,7 +1724,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>44075</v>
       </c>
@@ -1747,7 +1746,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>47</v>
@@ -1767,7 +1766,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20"/>
       <c r="C21" s="13">
@@ -1785,7 +1784,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>44105</v>
       </c>
@@ -1805,7 +1804,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>44136</v>
       </c>
@@ -1827,7 +1826,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13">
@@ -1845,7 +1844,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>44166</v>
       </c>
@@ -1869,7 +1868,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>52</v>
@@ -1891,7 +1890,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13">
@@ -1909,7 +1908,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
         <v>55</v>
       </c>
@@ -1927,7 +1926,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>44197</v>
       </c>
@@ -1951,7 +1950,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>44228</v>
       </c>
@@ -1977,7 +1976,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>59</v>
@@ -1999,7 +1998,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>59</v>
@@ -2021,7 +2020,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>44256</v>
       </c>
@@ -2041,7 +2040,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>44287</v>
       </c>
@@ -2061,7 +2060,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>44317</v>
       </c>
@@ -2081,7 +2080,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>44348</v>
       </c>
@@ -2105,7 +2104,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13">
@@ -2123,7 +2122,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>44378</v>
       </c>
@@ -2147,7 +2146,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>52</v>
@@ -2169,7 +2168,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13">
@@ -2187,7 +2186,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>44409</v>
       </c>
@@ -2207,7 +2206,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>44440</v>
       </c>
@@ -2227,7 +2226,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44470</v>
       </c>
@@ -2251,7 +2250,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13">
@@ -2269,7 +2268,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44501</v>
       </c>
@@ -2293,7 +2292,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13">
@@ -2311,7 +2310,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44531</v>
       </c>
@@ -2337,7 +2336,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>70</v>
@@ -2357,7 +2356,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>72</v>
       </c>
@@ -2375,7 +2374,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44562</v>
       </c>
@@ -2395,7 +2394,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44593</v>
       </c>
@@ -2415,7 +2414,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44621</v>
       </c>
@@ -2435,7 +2434,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44652</v>
       </c>
@@ -2459,7 +2458,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13">
@@ -2477,7 +2476,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44682</v>
       </c>
@@ -2501,7 +2500,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13">
@@ -2519,7 +2518,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44713</v>
       </c>
@@ -2545,7 +2544,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>47</v>
@@ -2565,7 +2564,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>75</v>
@@ -2585,7 +2584,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>85</v>
@@ -2607,7 +2606,7 @@
         <v>44726</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44743</v>
       </c>
@@ -2631,7 +2630,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13">
@@ -2649,7 +2648,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44774</v>
       </c>
@@ -2669,7 +2668,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44805</v>
       </c>
@@ -2695,7 +2694,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>85</v>
@@ -2717,7 +2716,7 @@
         <v>44805</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>86</v>
@@ -2739,7 +2738,7 @@
         <v>44820</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>85</v>
@@ -2761,7 +2760,7 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44835</v>
       </c>
@@ -2787,7 +2786,7 @@
         <v>44852</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44866</v>
       </c>
@@ -2813,7 +2812,7 @@
         <v>44867</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44896</v>
       </c>
@@ -2839,7 +2838,7 @@
         <v>44897</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>88</v>
@@ -2861,7 +2860,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>85</v>
@@ -2883,7 +2882,7 @@
         <v>44910</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>93</v>
@@ -2903,7 +2902,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="51"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="48" t="s">
         <v>84</v>
       </c>
@@ -2921,7 +2920,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44927</v>
       </c>
@@ -2947,7 +2946,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44958</v>
       </c>
@@ -2967,7 +2966,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44986</v>
       </c>
@@ -2987,7 +2986,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>45017</v>
       </c>
@@ -3013,7 +3012,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>45047</v>
       </c>
@@ -3039,7 +3038,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>85</v>
@@ -3061,7 +3060,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>45078</v>
       </c>
@@ -3087,7 +3086,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>92</v>
@@ -3107,7 +3106,7 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>45108</v>
       </c>
@@ -3133,7 +3132,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>85</v>
@@ -3155,7 +3154,7 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>85</v>
@@ -3177,7 +3176,7 @@
         <v>45125</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>45139</v>
       </c>
@@ -3202,6 +3201,328 @@
       <c r="K86" s="51">
         <v>45146</v>
       </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B87" s="20"/>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D87" s="39"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H87" s="39"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="20"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D88" s="39"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H88" s="39"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="51">
+        <v>45221</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="40"/>
+      <c r="B89" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C89" s="13"/>
+      <c r="D89" s="39"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H89" s="39">
+        <v>1</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="51">
+        <v>45230</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="40"/>
+      <c r="B90" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C90" s="13"/>
+      <c r="D90" s="39"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H90" s="39">
+        <v>1</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="51">
+        <v>45222</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B91" s="20"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H91" s="39"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="20"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B92" s="20"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H92" s="39"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="20"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="40">
+        <v>45292</v>
+      </c>
+      <c r="B93" s="20"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="39"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H93" s="39"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="20"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="40">
+        <v>45323</v>
+      </c>
+      <c r="B94" s="20"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="39"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H94" s="39"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="20"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="40">
+        <v>45352</v>
+      </c>
+      <c r="B95" s="20"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="39"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="20"/>
+      <c r="G95" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H95" s="39"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="20"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="40">
+        <v>45383</v>
+      </c>
+      <c r="B96" s="20"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H96" s="39"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="20"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="40">
+        <v>45413</v>
+      </c>
+      <c r="B97" s="20"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="39"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H97" s="39"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="20"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="40">
+        <v>45444</v>
+      </c>
+      <c r="B98" s="20"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="39"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H98" s="39"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="20"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="40">
+        <v>45474</v>
+      </c>
+      <c r="B99" s="20"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="39"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H99" s="39"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="20"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="40">
+        <v>45505</v>
+      </c>
+      <c r="B100" s="20"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="39"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H100" s="39"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="20"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="40">
+        <v>45536</v>
+      </c>
+      <c r="B101" s="20"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="39"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H101" s="39"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="20"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="40">
+        <v>45566</v>
+      </c>
+      <c r="B102" s="20"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="39"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H102" s="39"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="20"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="40">
+        <v>45597</v>
+      </c>
+      <c r="B103" s="20"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="39"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="20"/>
+      <c r="G103" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H103" s="39"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3218,10 +3539,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"REGULAR, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3244,28 +3565,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -3278,7 +3599,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -3307,7 +3628,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -3333,17 +3654,17 @@
         <v>1.208</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -3364,7 +3685,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -3391,7 +3712,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -3417,7 +3738,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -3443,7 +3764,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -3469,7 +3790,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -3495,7 +3816,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -3521,7 +3842,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -3547,7 +3868,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -3573,7 +3894,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -3593,7 +3914,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -3613,7 +3934,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -3633,7 +3954,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -3654,7 +3975,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -3675,7 +3996,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -3696,7 +4017,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -3717,7 +4038,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -3738,7 +4059,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -3759,7 +4080,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -3780,7 +4101,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -3801,7 +4122,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -3822,7 +4143,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -3843,7 +4164,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -3864,7 +4185,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -3885,7 +4206,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -3906,7 +4227,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -3927,7 +4248,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -3948,7 +4269,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -3969,7 +4290,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -3990,7 +4311,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4011,7 +4332,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4032,7 +4353,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -4053,7 +4374,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -4062,7 +4383,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -4071,7 +4392,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -4080,7 +4401,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -4089,7 +4410,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -4098,7 +4419,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -4107,7 +4428,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -4116,7 +4437,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -4125,7 +4446,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -4134,7 +4455,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -4143,7 +4464,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -4152,7 +4473,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -4161,7 +4482,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -4170,7 +4491,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -4179,7 +4500,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -4188,7 +4509,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -4197,7 +4518,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -4206,7 +4527,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -4215,7 +4536,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -4224,7 +4545,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -4233,7 +4554,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -4242,7 +4563,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -4251,7 +4572,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -4260,7 +4581,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -4269,7 +4590,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -4278,7 +4599,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -4287,7 +4608,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -4296,7 +4617,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -4305,7 +4626,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -4314,7 +4635,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
